--- a/src/files/xlsx/Salvador.xlsx
+++ b/src/files/xlsx/Salvador.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78" count="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81" count="81">
   <x:si>
     <x:t>date</x:t>
   </x:si>
@@ -248,6 +248,15 @@
   </x:si>
   <x:si>
     <x:t>2020-05-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-05-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-05-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-05-21</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -665,7 +674,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>36.5268927081</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -694,7 +703,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>39.6305651104</x:v>
+        <x:v>4.0498000611</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -723,7 +732,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>42.9979550552</x:v>
+        <x:v>5.3014501444</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -752,7 +761,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>46.6514704945</x:v>
+        <x:v>6.7918723723</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -781,7 +790,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>50.6154233732</x:v>
+        <x:v>8.5730244889</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -810,7 +819,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>54.9161914102</x:v>
+        <x:v>10.6906267527</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -839,7 +848,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>59.5823936268</x:v>
+        <x:v>13.217253561</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -868,7 +877,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>64.6450807883</x:v>
+        <x:v>16.2258875313</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -897,7 +906,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>70.1379420286</x:v>
+        <x:v>19.8287931099</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -926,7 +935,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
-        <x:v>76.0975290311</x:v>
+        <x:v>24.1262449064</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -955,7 +964,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="I12" s="0" t="n">
-        <x:v>82.5634992582</x:v>
+        <x:v>29.2369203836</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -984,7 +993,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
-        <x:v>89.5788798472</x:v>
+        <x:v>35.3559486634</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1013,7 +1022,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I14" s="0" t="n">
-        <x:v>97.190353931</x:v>
+        <x:v>42.6435071114</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1042,7 +1051,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>105.4485712854</x:v>
+        <x:v>51.3088194587</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1071,7 +1080,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>114.4084853732</x:v>
+        <x:v>61.6605149675</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1100,7 +1109,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>124.1297190264</x:v>
+        <x:v>73.991182377</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1129,7 +1138,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
-        <x:v>134.6769612001</x:v>
+        <x:v>88.7264113481</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1158,7 +1167,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>146.1203974387</x:v>
+        <x:v>106.2674811936</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1187,7 +1196,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
-        <x:v>158.5361769184</x:v>
+        <x:v>127.196164896</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1216,7 +1225,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>172.0069191739</x:v>
+        <x:v>152.1316292169</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1245,7 +1254,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="I22" s="0" t="n">
-        <x:v>186.6222638819</x:v>
+        <x:v>174.3199178038</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1274,7 +1283,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>202.4794673591</x:v>
+        <x:v>194.7219799098</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1303,7 +1312,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>219.6840497442</x:v>
+        <x:v>216.5146443657</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1332,7 +1341,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>238.3504971714</x:v>
+        <x:v>239.7929224974</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1361,7 +1370,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>258.6030236059</x:v>
+        <x:v>264.66182205</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1390,7 +1399,7 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>280.5763974137</x:v>
+        <x:v>291.231623796</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1419,7 +1428,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="I28" s="0" t="n">
-        <x:v>304.4168381636</x:v>
+        <x:v>319.621830751</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1448,7 +1457,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="I29" s="0" t="n">
-        <x:v>330.2829896303</x:v>
+        <x:v>349.9461458797</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
@@ -1477,7 +1486,7 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="I30" s="0" t="n">
-        <x:v>358.3469754736</x:v>
+        <x:v>382.3393306986</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1506,7 +1515,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>388.7955446171</x:v>
+        <x:v>416.9501323461</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1535,7 +1544,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="I32" s="0" t="n">
-        <x:v>421.8313139502</x:v>
+        <x:v>453.9370087877</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1564,7 +1573,7 @@
         <x:v>390</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
-        <x:v>457.6741166213</x:v>
+        <x:v>493.4098195994</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1593,7 +1602,7 @@
         <x:v>428</x:v>
       </x:c>
       <x:c r="I34" s="0" t="n">
-        <x:v>496.5624648952</x:v>
+        <x:v>535.5985536044</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1622,7 +1631,7 @@
         <x:v>522</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
-        <x:v>538.7551373084</x:v>
+        <x:v>580.6584372395</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1651,7 +1660,7 @@
         <x:v>572</x:v>
       </x:c>
       <x:c r="I36" s="0" t="n">
-        <x:v>584.5329006844</x:v>
+        <x:v>628.7875890109</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1680,7 +1689,7 @@
         <x:v>643</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
-        <x:v>634.2003784679</x:v>
+        <x:v>680.1986200603</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1709,7 +1718,7 @@
         <x:v>760</x:v>
       </x:c>
       <x:c r="I38" s="0" t="n">
-        <x:v>688.0880778104</x:v>
+        <x:v>735.1152925799</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1738,7 +1747,7 @@
         <x:v>764</x:v>
       </x:c>
       <x:c r="I39" s="0" t="n">
-        <x:v>746.5545888959</x:v>
+        <x:v>793.7781510432</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1767,7 +1776,7 @@
         <x:v>824</x:v>
       </x:c>
       <x:c r="I40" s="0" t="n">
-        <x:v>809.9889711433</x:v>
+        <x:v>856.4428220672</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1796,7 +1805,7 @@
         <x:v>927</x:v>
       </x:c>
       <x:c r="I41" s="0" t="n">
-        <x:v>878.8133421617</x:v>
+        <x:v>923.3826399836</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1825,7 +1834,7 @@
         <x:v>1039</x:v>
       </x:c>
       <x:c r="I42" s="0" t="n">
-        <x:v>953.4856866894</x:v>
+        <x:v>994.8879130756</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1854,7 +1863,7 @@
         <x:v>1137</x:v>
       </x:c>
       <x:c r="I43" s="0" t="n">
-        <x:v>1034.5029042063</x:v>
+        <x:v>1071.2710435505</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1883,7 +1892,7 @@
         <x:v>1223</x:v>
       </x:c>
       <x:c r="I44" s="0" t="n">
-        <x:v>1122.4041155008</x:v>
+        <x:v>1152.8668409164</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1912,7 +1921,7 @@
         <x:v>1308</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>1217.7742501938</x:v>
+        <x:v>1240.0256940712</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1941,7 +1950,7 @@
         <x:v>1362</x:v>
       </x:c>
       <x:c r="I46" s="0" t="n">
-        <x:v>1321.2479390931</x:v>
+        <x:v>1333.1180436965</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1970,7 +1979,7 @@
         <x:v>1435</x:v>
       </x:c>
       <x:c r="I47" s="0" t="n">
-        <x:v>1433.5137372793</x:v>
+        <x:v>1432.5564062516</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1999,7 +2008,7 @@
         <x:v>1583</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>1555.3187060249</x:v>
+        <x:v>1538.7752894414</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -2028,7 +2037,7 @@
         <x:v>1645</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
-        <x:v>1687.4733840376</x:v>
+        <x:v>1652.2287249722</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2057,7 +2066,7 @@
         <x:v>1790</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
-        <x:v>1830.8571811068</x:v>
+        <x:v>1773.3984678336</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2086,7 +2095,7 @@
         <x:v>2001</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
-        <x:v>1986.4242300461</x:v>
+        <x:v>1902.8340744245</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2115,7 +2124,7 @@
         <x:v>2106</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
-        <x:v>2155.2097358729</x:v>
+        <x:v>2041.0845565052</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2144,7 +2153,7 @@
         <x:v>2253</x:v>
       </x:c>
       <x:c r="I53" s="0" t="n">
-        <x:v>2338.3368644741</x:v>
+        <x:v>2188.7393802014</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2160,8 +2169,20 @@
       <x:c r="D54" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="E54" s="0" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="n">
+        <x:v>2377</x:v>
+      </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>2537.0242165987</x:v>
+        <x:v>2346.4358438602</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2177,8 +2198,20 @@
       <x:c r="D55" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="E55" s="0" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="n">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="n">
+        <x:v>2606</x:v>
+      </x:c>
       <x:c r="I55" s="0" t="n">
-        <x:v>2752.5939369114</x:v>
+        <x:v>2514.865335636</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2194,8 +2227,20 @@
       <x:c r="D56" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="E56" s="0" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="n">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="n">
+        <x:v>2754</x:v>
+      </x:c>
       <x:c r="I56" s="0" t="n">
-        <x:v>2986.48051207</x:v>
+        <x:v>2694.7524361558</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2211,8 +2256,20 @@
       <x:c r="D57" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="E57" s="0" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="n">
+        <x:v>2884</x:v>
+      </x:c>
       <x:c r="I57" s="0" t="n">
-        <x:v>3240.2403163692</x:v>
+        <x:v>2886.8694061381</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2228,8 +2285,20 @@
       <x:c r="D58" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="E58" s="0" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="n">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="n">
+        <x:v>3136</x:v>
+      </x:c>
       <x:c r="I58" s="0" t="n">
-        <x:v>3515.5619684748</x:v>
+        <x:v>3092.0423863874</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2245,8 +2314,20 @@
       <x:c r="D59" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="E59" s="0" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="n">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="n">
+        <x:v>3349</x:v>
+      </x:c>
       <x:c r="I59" s="0" t="n">
-        <x:v>3814.2775681637</x:v>
+        <x:v>3311.1577300907</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2262,8 +2343,20 @@
       <x:c r="D60" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="E60" s="0" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="n">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="n">
+        <x:v>3677</x:v>
+      </x:c>
       <x:c r="I60" s="0" t="n">
-        <x:v>4138.3748878442</x:v>
+        <x:v>3545.1597112689</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2279,8 +2372,20 @@
       <x:c r="D61" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="E61" s="0" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="n">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="n">
+        <x:v>3891</x:v>
+      </x:c>
       <x:c r="I61" s="0" t="n">
-        <x:v>4490.010599985</x:v>
+        <x:v>3795.0566518617</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2290,14 +2395,8 @@
       <x:c r="B62" s="0" t="n">
         <x:v>2927408</x:v>
       </x:c>
-      <x:c r="C62" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D62" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>4871.5246284706</x:v>
+        <x:v>4061.9239336806</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2307,14 +2406,8 @@
       <x:c r="B63" s="0" t="n">
         <x:v>2927408</x:v>
       </x:c>
-      <x:c r="C63" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D63" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="I63" s="0" t="n">
-        <x:v>5285.4557193863</x:v>
+        <x:v>4346.9059605428</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2324,14 +2417,8 @@
       <x:c r="B64" s="0" t="n">
         <x:v>2927408</x:v>
       </x:c>
-      <x:c r="C64" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D64" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="I64" s="0" t="n">
-        <x:v>5734.5583348439</x:v>
+        <x:v>4651.2225792216</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2341,14 +2428,8 @@
       <x:c r="B65" s="0" t="n">
         <x:v>2927408</x:v>
       </x:c>
-      <x:c r="C65" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D65" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="I65" s="0" t="n">
-        <x:v>6221.8209822682</x:v>
+        <x:v>4976.1718060936</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2358,14 +2439,8 @@
       <x:c r="B66" s="0" t="n">
         <x:v>2927408</x:v>
       </x:c>
-      <x:c r="C66" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D66" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>6750.4861011144</x:v>
+        <x:v>5323.1371908743</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
@@ -2375,14 +2450,8 @@
       <x:c r="B67" s="0" t="n">
         <x:v>2927408</x:v>
       </x:c>
-      <x:c r="C67" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D67" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="I67" s="0" t="n">
-        <x:v>7324.0716393492</x:v>
+        <x:v>5693.6069806107</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:9">
@@ -2392,14 +2461,41 @@
       <x:c r="B68" s="0" t="n">
         <x:v>2927408</x:v>
       </x:c>
-      <x:c r="C68" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D68" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="I68" s="0" t="n">
-        <x:v>7946.3944632763</x:v>
+        <x:v>6089.1590346127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:9">
+      <x:c r="A69" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="n">
+        <x:v>2927408</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="n">
+        <x:v>6511.470283597</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:9">
+      <x:c r="A70" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="n">
+        <x:v>2927408</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="n">
+        <x:v>6962.3255418938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:9">
+      <x:c r="A71" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="n">
+        <x:v>2927408</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="n">
+        <x:v>7443.6443739644</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
